--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825D19F2-6117-441E-99F7-2B66876CA462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38513140-9CCA-4662-B6B9-7DA5D63B8AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7008" yWindow="3816" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3816" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,6 +459,10 @@
   </si>
   <si>
     <t>数据字典-在线调查数据库设计</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -732,16 +732,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,10 +753,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1149,164 +1149,164 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="C6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="C7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="C8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="C9" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="12"/>
+      <c r="C10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="C11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="12"/>
+      <c r="C12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="C13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -1370,20 +1370,20 @@
     </row>
     <row r="20" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>13</v>
@@ -1391,89 +1391,89 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1502,50 +1502,50 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
         <v>0</v>
       </c>
@@ -1574,130 +1574,130 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="2:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
         <v>0</v>
       </c>
@@ -1726,82 +1726,82 @@
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1813,32 +1813,32 @@
     </row>
     <row r="55" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
     </row>
     <row r="57" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="5" t="s">
         <v>0</v>
       </c>
@@ -1867,48 +1867,48 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
     </row>
     <row r="63" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="65" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>8</v>
@@ -1937,37 +1937,37 @@
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
     </row>
     <row r="68" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="5" t="s">
         <v>0</v>
       </c>
@@ -1986,47 +1986,47 @@
     </row>
     <row r="70" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B70" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B71" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B73" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B74" s="5" t="s">
         <v>0</v>
       </c>
@@ -2051,47 +2051,47 @@
         <v>8</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B80" s="5" t="s">
         <v>0</v>
       </c>
@@ -2110,43 +2110,44 @@
     </row>
     <row r="81" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B81" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B82" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -2158,14 +2159,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38513140-9CCA-4662-B6B9-7DA5D63B8AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC5F25-D83E-4741-B21C-F20B376B8ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3816" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
   <si>
     <t>字段名</t>
   </si>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详细信息编号，主键，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +458,10 @@
   </si>
   <si>
     <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F82"/>
+  <dimension ref="B2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1150,7 +1150,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1195,11 +1195,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="18"/>
     </row>
@@ -1208,11 +1208,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="18"/>
     </row>
@@ -1221,11 +1221,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="18"/>
     </row>
@@ -1234,11 +1234,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="18"/>
     </row>
@@ -1247,11 +1247,11 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="18"/>
     </row>
@@ -1260,11 +1260,11 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="18"/>
     </row>
@@ -1273,11 +1273,11 @@
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -1286,11 +1286,11 @@
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="18"/>
     </row>
@@ -1373,7 +1373,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1582,7 +1582,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>14</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="46" spans="2:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1716,37 +1716,37 @@
     </row>
     <row r="48" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="7" t="s">
-        <v>70</v>
+      <c r="B50" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>39</v>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>39</v>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>39</v>
@@ -1786,85 +1786,83 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="9"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="8" t="s">
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="4" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B59" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
         <v>81</v>
@@ -1872,10 +1870,10 @@
     </row>
     <row r="60" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -1883,46 +1881,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="5" t="s">
+    <row r="63" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1930,7 +1930,7 @@
         <v>86</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>14</v>
@@ -1940,53 +1940,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="4" t="s">
+    <row r="68" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>4</v>
+      <c r="C69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B70" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>8</v>
@@ -1996,56 +1996,56 @@
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="9" t="s">
+    <row r="73" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" s="9" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>8</v>
@@ -2055,62 +2055,62 @@
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
+    </row>
+    <row r="78" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="4" t="s">
+    <row r="79" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>4</v>
+      <c r="C80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B81" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>8</v>
@@ -2120,29 +2120,14 @@
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B66:F66"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="C13:D13"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC5F25-D83E-4741-B21C-F20B376B8ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2435F994-3C53-4C5E-B616-4964C2BBEAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3816" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,310 +155,315 @@
   </si>
   <si>
     <t>mediumtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户表(users)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司表(companys)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司编号，主键，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查问卷表(investigates)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查文件编号，主键，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷是否通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体问题表的表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户结果表表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的问卷id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1相关信息（计划用json串存储）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qs2</t>
+  </si>
+  <si>
+    <t>问题2相关信息（计划用json串存储）</t>
+  </si>
+  <si>
+    <t>qs3</t>
+  </si>
+  <si>
+    <t>问题3相关信息（计划用json串存储）</t>
+  </si>
+  <si>
+    <t>qs4</t>
+  </si>
+  <si>
+    <t>问题4相关信息（计划用json串存储）</t>
+  </si>
+  <si>
+    <t>qsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题n相关信息（计划用json串存储）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表(tags)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag编号 ，外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户tag对应表(usertag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>用户id外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagid外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷tag对应表(invtag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iid</t>
+  </si>
+  <si>
+    <t>问卷id外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户作答表(userresults)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ans</t>
+  </si>
+  <si>
+    <t>用户作答信息（json串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司用户表(cmpuser)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司id外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查问卷表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷问题详细信息表(invdetils)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷问题详细信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷问题信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户tag对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷tag对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户作答表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择的tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷对应的tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司与用户的对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典-在线调查数据库设计</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mediumtext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册用户表(users)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司表(companys)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ownerid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司编号，主键，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司管理者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查问卷表(investigates)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查文件编号，主键，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷是否通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体问题表的表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户结果表表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的问卷id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qs1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题1相关信息（计划用json串存储）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qs2</t>
-  </si>
-  <si>
-    <t>问题2相关信息（计划用json串存储）</t>
-  </si>
-  <si>
-    <t>qs3</t>
-  </si>
-  <si>
-    <t>问题3相关信息（计划用json串存储）</t>
-  </si>
-  <si>
-    <t>qs4</t>
-  </si>
-  <si>
-    <t>问题4相关信息（计划用json串存储）</t>
-  </si>
-  <si>
-    <t>qsn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题n相关信息（计划用json串存储）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表(tags)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag编号 ，外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户tag对应表(usertag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>用户id外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagid外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷tag对应表(invtag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iid</t>
-  </si>
-  <si>
-    <t>问卷id外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户作答表(userresults)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ans</t>
-  </si>
-  <si>
-    <t>用户作答信息（json串）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司用户表(cmpuser)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司id外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查问卷表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷问题详细信息表(invdetils)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷问题详细信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷问题信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户tag对应表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷tag对应表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户作答表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户选择的tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷对应的tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户的答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司与用户的对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典-在线调查数据库设计</t>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,6 +740,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,18 +765,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1149,150 +1151,150 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="C6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="18"/>
+      <c r="C7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="C8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="18"/>
+      <c r="C9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="18"/>
+      <c r="C10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="C11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="18"/>
+      <c r="C12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="18"/>
+      <c r="C13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
@@ -1303,7 +1305,7 @@
     </row>
     <row r="15" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1325,7 +1327,7 @@
     </row>
     <row r="17" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -1340,7 +1342,7 @@
     </row>
     <row r="18" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>13</v>
@@ -1355,10 +1357,10 @@
     </row>
     <row r="19" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -1370,20 +1372,20 @@
     </row>
     <row r="20" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>13</v>
@@ -1391,74 +1393,74 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -1470,7 +1472,7 @@
     </row>
     <row r="28" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1492,7 +1494,7 @@
     </row>
     <row r="30" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>8</v>
@@ -1502,47 +1504,47 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1564,7 +1566,7 @@
     </row>
     <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>8</v>
@@ -1574,115 +1576,115 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
@@ -1694,7 +1696,7 @@
     </row>
     <row r="46" spans="2:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1716,77 +1718,77 @@
     </row>
     <row r="48" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1798,29 +1800,29 @@
     </row>
     <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1842,7 +1844,7 @@
     </row>
     <row r="58" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>8</v>
@@ -1852,45 +1854,45 @@
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B59" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1912,7 +1914,7 @@
     </row>
     <row r="64" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B64" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>8</v>
@@ -1922,34 +1924,34 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1971,32 +1973,32 @@
     </row>
     <row r="69" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
@@ -2008,7 +2010,7 @@
     </row>
     <row r="72" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -2030,50 +2032,50 @@
     </row>
     <row r="74" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -2095,44 +2097,43 @@
     </row>
     <row r="80" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B80" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B81" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -2144,13 +2145,14 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2435F994-3C53-4C5E-B616-4964C2BBEAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C92DC-E407-4813-9776-18D8E2DD7DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3816" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
   <si>
     <t>字段名</t>
   </si>
@@ -464,6 +464,30 @@
   </si>
   <si>
     <t>mediumtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司领域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,18 +764,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,6 +777,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F81"/>
+  <dimension ref="B2:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1151,150 +1175,150 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
@@ -1535,272 +1559,266 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+    <row r="33" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="5" t="s">
+    <row r="39" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="9" t="s">
-        <v>41</v>
+      <c r="B42" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="9" t="s">
-        <v>60</v>
+      <c r="B43" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
-        <v>61</v>
+      <c r="B44" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="2:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="7" t="s">
-        <v>65</v>
+      <c r="B48" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="2:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="9" t="s">
-        <v>73</v>
+      <c r="B52" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="9"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="B53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>37</v>
@@ -1810,229 +1828,237 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="56" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B56" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="7" t="s">
-        <v>16</v>
+      <c r="B58" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="7" t="s">
+    <row r="63" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="7" t="s">
+    <row r="64" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>8</v>
@@ -2042,98 +2068,143 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="9" t="s">
+    <row r="79" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E79" s="8"/>
+      <c r="F79" s="8" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B80" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="9" t="s">
+    <row r="85" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -2145,14 +2216,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C92DC-E407-4813-9776-18D8E2DD7DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93593162-5BA6-4552-9B72-A26F50BDE0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4584" yWindow="3720" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
   <si>
     <t>字段名</t>
   </si>
@@ -226,22 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体问题表的表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户结果表表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,48 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的问卷id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qs1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题1相关信息（计划用json串存储）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qs2</t>
-  </si>
-  <si>
-    <t>问题2相关信息（计划用json串存储）</t>
-  </si>
-  <si>
-    <t>qs3</t>
-  </si>
-  <si>
-    <t>问题3相关信息（计划用json串存储）</t>
-  </si>
-  <si>
-    <t>qs4</t>
-  </si>
-  <si>
-    <t>问题4相关信息（计划用json串存储）</t>
-  </si>
-  <si>
-    <t>qsn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题n相关信息（计划用json串存储）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标签表(tags)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问卷问题详细信息表(invdetils)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问卷问题详细信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,6 +422,10 @@
   </si>
   <si>
     <t>公司领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷具体内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,6 +702,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,18 +727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1175,150 +1113,150 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="C6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="18"/>
+      <c r="C7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="C8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="18"/>
+      <c r="C9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="18"/>
+      <c r="C10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="C11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="18"/>
+      <c r="C12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="18"/>
+      <c r="C13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
@@ -1399,7 +1337,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1569,12 +1507,12 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>23</v>
@@ -1582,20 +1520,20 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1606,11 +1544,11 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
@@ -1697,30 +1635,30 @@
         <v>54</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="7" t="s">
-        <v>57</v>
+      <c r="B45" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>34</v>
@@ -1728,171 +1666,161 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="2:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="9"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1913,115 +1841,110 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="7" t="s">
-        <v>16</v>
+      <c r="B62" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="7" t="s">
-        <v>40</v>
+      <c r="B63" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="71" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -2043,7 +1966,7 @@
     </row>
     <row r="73" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B73" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>8</v>
@@ -2053,12 +1976,12 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B74" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>8</v>
@@ -2068,143 +1991,18 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -2216,13 +2014,14 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93593162-5BA6-4552-9B72-A26F50BDE0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5AB1A-342E-4C23-9DC3-C0B5A967D26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4584" yWindow="3720" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>字段名</t>
   </si>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问卷问题详细信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标签表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +339,6 @@
   </si>
   <si>
     <t>问卷信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷问题信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -702,18 +694,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,6 +707,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F74"/>
+  <dimension ref="B2:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1113,280 +1105,280 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="14"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="14"/>
+      <c r="C9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="C10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="14"/>
+      <c r="C11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
+      <c r="C12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="5" t="s">
+    <row r="15" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="7" t="s">
-        <v>40</v>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>37</v>
@@ -1394,115 +1386,115 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
+    <row r="28" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="7" t="s">
-        <v>41</v>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1515,137 +1507,137 @@
         <v>101</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="4" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="5" t="s">
+    <row r="38" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="7" t="s">
-        <v>54</v>
+      <c r="B44" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="9" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>34</v>
@@ -1653,196 +1645,198 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="4" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="5" t="s">
+    <row r="49" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="4" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="5" t="s">
+    <row r="55" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="4" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="5" t="s">
+    <row r="60" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B62" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>8</v>
@@ -1852,56 +1846,56 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>4</v>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B67" s="9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>8</v>
@@ -1911,62 +1905,62 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="4" t="s">
+    <row r="70" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="5" t="s">
+    <row r="71" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B73" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>8</v>
@@ -1976,26 +1970,28 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="24">
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -2003,25 +1999,6 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5AB1A-342E-4C23-9DC3-C0B5A967D26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F178D5E-495B-46F3-8F6D-D5DBCA568D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4584" yWindow="3720" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
   <si>
     <t>字段名</t>
   </si>
@@ -230,18 +230,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,124 +263,109 @@
   </si>
   <si>
     <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>用户id外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagid外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷tag对应表(invtag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iid</t>
+  </si>
+  <si>
+    <t>问卷id外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户作答表(userresults)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ans</t>
+  </si>
+  <si>
+    <t>用户作答信息（json串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查问卷表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户tag对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷tag对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户作答表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择的tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷对应的tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司与用户的对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典-在线调查数据库设计</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>用户id外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagid外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷tag对应表(invtag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iid</t>
-  </si>
-  <si>
-    <t>问卷id外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户作答表(userresults)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ans</t>
-  </si>
-  <si>
-    <t>用户作答信息（json串）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司用户表(cmpuser)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司id外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查问卷表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户tag对应表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷tag对应表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户作答表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户选择的tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷对应的tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户的答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司与用户的对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典-在线调查数据库设计</t>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mediumtext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +395,18 @@
   </si>
   <si>
     <t>问卷具体内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应公司的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,6 +683,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,18 +708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F73"/>
+  <dimension ref="B2:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1105,137 +1094,137 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="C6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="18"/>
+      <c r="C7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="18"/>
+      <c r="C9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="18"/>
+      <c r="C10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="C11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="18"/>
+      <c r="C12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
@@ -1316,7 +1305,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1391,253 +1380,253 @@
     </row>
     <row r="25" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="9" t="s">
-        <v>52</v>
+      <c r="B32" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
+      <c r="B35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
-        <v>41</v>
+      <c r="B44" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>34</v>
@@ -1645,32 +1634,32 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1702,7 +1691,7 @@
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1715,7 +1704,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -1728,19 +1717,19 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1762,7 +1751,7 @@
     </row>
     <row r="56" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>8</v>
@@ -1772,12 +1761,12 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>34</v>
@@ -1787,19 +1776,19 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1821,7 +1810,7 @@
     </row>
     <row r="61" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>8</v>
@@ -1831,12 +1820,12 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B62" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>8</v>
@@ -1846,7 +1835,7 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
@@ -1858,7 +1847,7 @@
     </row>
     <row r="64" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -1880,7 +1869,7 @@
     </row>
     <row r="66" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>8</v>
@@ -1890,12 +1879,12 @@
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B67" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>8</v>
@@ -1905,84 +1894,31 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -1992,13 +1928,14 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
